--- a/guardprofile.xlsx
+++ b/guardprofile.xlsx
@@ -95,9 +95,6 @@
     <t>go to profile page</t>
   </si>
   <si>
-    <t>edit page should be displayed</t>
-  </si>
-  <si>
     <t>edit page is displayed</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>view the emergency link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit page should be displayed  </t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:F61"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,10 +771,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -782,7 +782,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -790,16 +790,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -807,12 +807,12 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -820,16 +820,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -837,12 +837,12 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -850,16 +850,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
@@ -867,12 +867,12 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -880,16 +880,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
         <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -897,17 +897,17 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -915,16 +915,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
         <v>43</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -932,12 +932,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -945,16 +945,16 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -962,17 +962,17 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,16 +980,16 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -997,12 +997,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1010,24 +1010,24 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>55</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" t="s">
         <v>56</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1035,29 +1035,29 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,29 +1065,29 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>66</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>67</v>
       </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,29 +1095,29 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>72</v>
       </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1125,29 +1125,29 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
         <v>76</v>
       </c>
-      <c r="C44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>77</v>
       </c>
-      <c r="E44" t="s">
-        <v>78</v>
-      </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1155,29 +1155,29 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>22</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,29 +1185,29 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1215,29 +1215,29 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1245,29 +1245,29 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,29 +1275,29 @@
         <v>21</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
